--- a/natmiOut/OldD4/LR-pairs_lrc2p/Qrfp-P2ry14.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Qrfp-P2ry14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -86,9 +92,6 @@
   </si>
   <si>
     <t>P2ry14</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.475558777954589</v>
+        <v>0.430932</v>
       </c>
       <c r="H2">
-        <v>0.475558777954589</v>
+        <v>1.292796</v>
       </c>
       <c r="I2">
-        <v>0.4798527533038905</v>
+        <v>0.1949684913323735</v>
       </c>
       <c r="J2">
-        <v>0.4798527533038905</v>
+        <v>0.2120482069995808</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.604327194534281</v>
+        <v>1.843770666666667</v>
       </c>
       <c r="N2">
-        <v>0.604327194534281</v>
+        <v>5.531312</v>
       </c>
       <c r="O2">
-        <v>0.06153216064781956</v>
+        <v>0.09585483956063945</v>
       </c>
       <c r="P2">
-        <v>0.06153216064781956</v>
+        <v>0.1019705832843711</v>
       </c>
       <c r="Q2">
-        <v>0.2873931021174478</v>
+        <v>0.794539780928</v>
       </c>
       <c r="R2">
-        <v>0.2873931021174478</v>
+        <v>7.150858028352</v>
       </c>
       <c r="S2">
-        <v>0.02952637670359352</v>
+        <v>0.01868867345604459</v>
       </c>
       <c r="T2">
-        <v>0.02952637670359352</v>
+        <v>0.02162267935215231</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.475558777954589</v>
+        <v>0.430932</v>
       </c>
       <c r="H3">
-        <v>0.475558777954589</v>
+        <v>1.292796</v>
       </c>
       <c r="I3">
-        <v>0.4798527533038905</v>
+        <v>0.1949684913323735</v>
       </c>
       <c r="J3">
-        <v>0.4798527533038905</v>
+        <v>0.2120482069995808</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.05280037583428</v>
+        <v>10.50153333333333</v>
       </c>
       <c r="N3">
-        <v>6.05280037583428</v>
+        <v>31.5046</v>
       </c>
       <c r="O3">
-        <v>0.6162917844232317</v>
+        <v>0.5459587848998794</v>
       </c>
       <c r="P3">
-        <v>0.6162917844232317</v>
+        <v>0.5807921227623388</v>
       </c>
       <c r="Q3">
-        <v>2.878462349934827</v>
+        <v>4.525446762400001</v>
       </c>
       <c r="R3">
-        <v>2.878462349934827</v>
+        <v>40.72902086160001</v>
       </c>
       <c r="S3">
-        <v>0.2957293095940555</v>
+        <v>0.1064447606215853</v>
       </c>
       <c r="T3">
-        <v>0.2957293095940555</v>
+        <v>0.1231559282712344</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.475558777954589</v>
+        <v>0.430932</v>
       </c>
       <c r="H4">
-        <v>0.475558777954589</v>
+        <v>1.292796</v>
       </c>
       <c r="I4">
-        <v>0.4798527533038905</v>
+        <v>0.1949684913323735</v>
       </c>
       <c r="J4">
-        <v>0.4798527533038905</v>
+        <v>0.2120482069995808</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.359836994232626</v>
+        <v>3.42883</v>
       </c>
       <c r="N4">
-        <v>0.359836994232626</v>
+        <v>10.28649</v>
       </c>
       <c r="O4">
-        <v>0.03663834415595617</v>
+        <v>0.1782596694223942</v>
       </c>
       <c r="P4">
-        <v>0.03663834415595617</v>
+        <v>0.1896330174918447</v>
       </c>
       <c r="Q4">
-        <v>0.1711236412401201</v>
+        <v>1.47759256956</v>
       </c>
       <c r="R4">
-        <v>0.1711236412401201</v>
+        <v>13.29833312604</v>
       </c>
       <c r="S4">
-        <v>0.01758101031973108</v>
+        <v>0.03475501881269183</v>
       </c>
       <c r="T4">
-        <v>0.01758101031973108</v>
+        <v>0.0402113413470658</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.475558777954589</v>
+        <v>0.430932</v>
       </c>
       <c r="H5">
-        <v>0.475558777954589</v>
+        <v>1.292796</v>
       </c>
       <c r="I5">
-        <v>0.4798527533038905</v>
+        <v>0.1949684913323735</v>
       </c>
       <c r="J5">
-        <v>0.4798527533038905</v>
+        <v>0.2120482069995808</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.8043579466163</v>
+        <v>3.4608955</v>
       </c>
       <c r="N5">
-        <v>2.8043579466163</v>
+        <v>6.921791000000001</v>
       </c>
       <c r="O5">
-        <v>0.2855377107729926</v>
+        <v>0.1799267061170871</v>
       </c>
       <c r="P5">
-        <v>0.2855377107729926</v>
+        <v>0.1276042764614454</v>
       </c>
       <c r="Q5">
-        <v>1.333637038040088</v>
+        <v>1.491410619606</v>
       </c>
       <c r="R5">
-        <v>1.333637038040088</v>
+        <v>8.948463717636001</v>
       </c>
       <c r="S5">
-        <v>0.1370160566865105</v>
+        <v>0.03508003844205181</v>
       </c>
       <c r="T5">
-        <v>0.1370160566865105</v>
+        <v>0.0270582580291283</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.515492694982189</v>
+        <v>0.5328176666666667</v>
       </c>
       <c r="H6">
-        <v>0.515492694982189</v>
+        <v>1.598453</v>
       </c>
       <c r="I6">
-        <v>0.5201472466961096</v>
+        <v>0.2410650790037303</v>
       </c>
       <c r="J6">
-        <v>0.5201472466961096</v>
+        <v>0.2621829682510627</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.604327194534281</v>
+        <v>1.843770666666667</v>
       </c>
       <c r="N6">
-        <v>0.604327194534281</v>
+        <v>5.531312</v>
       </c>
       <c r="O6">
-        <v>0.06153216064781956</v>
+        <v>0.09585483956063945</v>
       </c>
       <c r="P6">
-        <v>0.06153216064781956</v>
+        <v>0.1019705832843711</v>
       </c>
       <c r="Q6">
-        <v>0.3115262541615021</v>
+        <v>0.9823935844817779</v>
       </c>
       <c r="R6">
-        <v>0.3115262541615021</v>
+        <v>8.841542260336</v>
       </c>
       <c r="S6">
-        <v>0.03200578394422605</v>
+        <v>0.02310725447157544</v>
       </c>
       <c r="T6">
-        <v>0.03200578394422605</v>
+        <v>0.02673495019978862</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.515492694982189</v>
+        <v>0.5328176666666667</v>
       </c>
       <c r="H7">
-        <v>0.515492694982189</v>
+        <v>1.598453</v>
       </c>
       <c r="I7">
-        <v>0.5201472466961096</v>
+        <v>0.2410650790037303</v>
       </c>
       <c r="J7">
-        <v>0.5201472466961096</v>
+        <v>0.2621829682510627</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.05280037583428</v>
+        <v>10.50153333333333</v>
       </c>
       <c r="N7">
-        <v>6.05280037583428</v>
+        <v>31.5046</v>
       </c>
       <c r="O7">
-        <v>0.6162917844232317</v>
+        <v>0.5459587848998794</v>
       </c>
       <c r="P7">
-        <v>0.6162917844232317</v>
+        <v>0.5807921227623388</v>
       </c>
       <c r="Q7">
-        <v>3.120174377928019</v>
+        <v>5.59540248708889</v>
       </c>
       <c r="R7">
-        <v>3.120174377928019</v>
+        <v>50.35862238380001</v>
       </c>
       <c r="S7">
-        <v>0.3205624748291763</v>
+        <v>0.13161159761467</v>
       </c>
       <c r="T7">
-        <v>0.3205624748291763</v>
+        <v>0.1522738026826656</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.515492694982189</v>
+        <v>0.5328176666666667</v>
       </c>
       <c r="H8">
-        <v>0.515492694982189</v>
+        <v>1.598453</v>
       </c>
       <c r="I8">
-        <v>0.5201472466961096</v>
+        <v>0.2410650790037303</v>
       </c>
       <c r="J8">
-        <v>0.5201472466961096</v>
+        <v>0.2621829682510627</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.359836994232626</v>
+        <v>3.42883</v>
       </c>
       <c r="N8">
-        <v>0.359836994232626</v>
+        <v>10.28649</v>
       </c>
       <c r="O8">
-        <v>0.03663834415595617</v>
+        <v>0.1782596694223942</v>
       </c>
       <c r="P8">
-        <v>0.03663834415595617</v>
+        <v>0.1896330174918447</v>
       </c>
       <c r="Q8">
-        <v>0.1854933419112668</v>
+        <v>1.826941199996667</v>
       </c>
       <c r="R8">
-        <v>0.1854933419112668</v>
+        <v>16.44247079997</v>
       </c>
       <c r="S8">
-        <v>0.0190573338362251</v>
+        <v>0.0429721812924883</v>
       </c>
       <c r="T8">
-        <v>0.0190573338362251</v>
+        <v>0.04971854740441754</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +959,557 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.5328176666666667</v>
+      </c>
+      <c r="H9">
+        <v>1.598453</v>
+      </c>
+      <c r="I9">
+        <v>0.2410650790037303</v>
+      </c>
+      <c r="J9">
+        <v>0.2621829682510627</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3.4608955</v>
+      </c>
+      <c r="N9">
+        <v>6.921791000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.1799267061170871</v>
+      </c>
+      <c r="P9">
+        <v>0.1276042764614454</v>
+      </c>
+      <c r="Q9">
+        <v>1.844026264887167</v>
+      </c>
+      <c r="R9">
+        <v>11.064157589323</v>
+      </c>
+      <c r="S9">
+        <v>0.04337404562499655</v>
+      </c>
+      <c r="T9">
+        <v>0.03345566796419096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.7124286666666667</v>
+      </c>
+      <c r="H10">
+        <v>2.137286</v>
+      </c>
+      <c r="I10">
+        <v>0.322327286722579</v>
+      </c>
+      <c r="J10">
+        <v>0.3505639436889548</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.843770666666667</v>
+      </c>
+      <c r="N10">
+        <v>5.531312</v>
+      </c>
+      <c r="O10">
+        <v>0.09585483956063945</v>
+      </c>
+      <c r="P10">
+        <v>0.1019705832843711</v>
+      </c>
+      <c r="Q10">
+        <v>1.313555077692445</v>
+      </c>
+      <c r="R10">
+        <v>11.821995699232</v>
+      </c>
+      <c r="S10">
+        <v>0.03089663035480904</v>
+      </c>
+      <c r="T10">
+        <v>0.03574720981643215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.7124286666666667</v>
+      </c>
+      <c r="H11">
+        <v>2.137286</v>
+      </c>
+      <c r="I11">
+        <v>0.322327286722579</v>
+      </c>
+      <c r="J11">
+        <v>0.3505639436889548</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>10.50153333333333</v>
+      </c>
+      <c r="N11">
+        <v>31.5046</v>
+      </c>
+      <c r="O11">
+        <v>0.5459587848998794</v>
+      </c>
+      <c r="P11">
+        <v>0.5807921227623388</v>
+      </c>
+      <c r="Q11">
+        <v>7.481593390622224</v>
+      </c>
+      <c r="R11">
+        <v>67.3343405156</v>
+      </c>
+      <c r="S11">
+        <v>0.1759774137991343</v>
+      </c>
+      <c r="T11">
+        <v>0.2036047770190451</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.7124286666666667</v>
+      </c>
+      <c r="H12">
+        <v>2.137286</v>
+      </c>
+      <c r="I12">
+        <v>0.322327286722579</v>
+      </c>
+      <c r="J12">
+        <v>0.3505639436889548</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3.42883</v>
+      </c>
+      <c r="N12">
+        <v>10.28649</v>
+      </c>
+      <c r="O12">
+        <v>0.1782596694223942</v>
+      </c>
+      <c r="P12">
+        <v>0.1896330174918447</v>
+      </c>
+      <c r="Q12">
+        <v>2.442796785126667</v>
+      </c>
+      <c r="R12">
+        <v>21.98517106614</v>
+      </c>
+      <c r="S12">
+        <v>0.05745795557698421</v>
+      </c>
+      <c r="T12">
+        <v>0.06647849846557762</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.7124286666666667</v>
+      </c>
+      <c r="H13">
+        <v>2.137286</v>
+      </c>
+      <c r="I13">
+        <v>0.322327286722579</v>
+      </c>
+      <c r="J13">
+        <v>0.3505639436889548</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.4608955</v>
+      </c>
+      <c r="N13">
+        <v>6.921791000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.1799267061170871</v>
+      </c>
+      <c r="P13">
+        <v>0.1276042764614454</v>
+      </c>
+      <c r="Q13">
+        <v>2.465641166537667</v>
+      </c>
+      <c r="R13">
+        <v>14.793846999226</v>
+      </c>
+      <c r="S13">
+        <v>0.05799528699165155</v>
+      </c>
+      <c r="T13">
+        <v>0.04473345838789995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.515492694982189</v>
-      </c>
-      <c r="H9">
-        <v>0.515492694982189</v>
-      </c>
-      <c r="I9">
-        <v>0.5201472466961096</v>
-      </c>
-      <c r="J9">
-        <v>0.5201472466961096</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>2.8043579466163</v>
-      </c>
-      <c r="N9">
-        <v>2.8043579466163</v>
-      </c>
-      <c r="O9">
-        <v>0.2855377107729926</v>
-      </c>
-      <c r="P9">
-        <v>0.2855377107729926</v>
-      </c>
-      <c r="Q9">
-        <v>1.445626035595954</v>
-      </c>
-      <c r="R9">
-        <v>1.445626035595954</v>
-      </c>
-      <c r="S9">
-        <v>0.1485216540864822</v>
-      </c>
-      <c r="T9">
-        <v>0.1485216540864822</v>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.5340865</v>
+      </c>
+      <c r="H14">
+        <v>1.068173</v>
+      </c>
+      <c r="I14">
+        <v>0.2416391429413172</v>
+      </c>
+      <c r="J14">
+        <v>0.1752048810604018</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.843770666666667</v>
+      </c>
+      <c r="N14">
+        <v>5.531312</v>
+      </c>
+      <c r="O14">
+        <v>0.09585483956063945</v>
+      </c>
+      <c r="P14">
+        <v>0.1019705832843711</v>
+      </c>
+      <c r="Q14">
+        <v>0.9847330221626667</v>
+      </c>
+      <c r="R14">
+        <v>5.908398132976</v>
+      </c>
+      <c r="S14">
+        <v>0.02316228127821039</v>
+      </c>
+      <c r="T14">
+        <v>0.01786574391599803</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.5340865</v>
+      </c>
+      <c r="H15">
+        <v>1.068173</v>
+      </c>
+      <c r="I15">
+        <v>0.2416391429413172</v>
+      </c>
+      <c r="J15">
+        <v>0.1752048810604018</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>10.50153333333333</v>
+      </c>
+      <c r="N15">
+        <v>31.5046</v>
+      </c>
+      <c r="O15">
+        <v>0.5459587848998794</v>
+      </c>
+      <c r="P15">
+        <v>0.5807921227623388</v>
+      </c>
+      <c r="Q15">
+        <v>5.608727182633334</v>
+      </c>
+      <c r="R15">
+        <v>33.65236309580001</v>
+      </c>
+      <c r="S15">
+        <v>0.1319250128644898</v>
+      </c>
+      <c r="T15">
+        <v>0.1017576147893939</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.5340865</v>
+      </c>
+      <c r="H16">
+        <v>1.068173</v>
+      </c>
+      <c r="I16">
+        <v>0.2416391429413172</v>
+      </c>
+      <c r="J16">
+        <v>0.1752048810604018</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.42883</v>
+      </c>
+      <c r="N16">
+        <v>10.28649</v>
+      </c>
+      <c r="O16">
+        <v>0.1782596694223942</v>
+      </c>
+      <c r="P16">
+        <v>0.1896330174918447</v>
+      </c>
+      <c r="Q16">
+        <v>1.831291813795</v>
+      </c>
+      <c r="R16">
+        <v>10.98775088277</v>
+      </c>
+      <c r="S16">
+        <v>0.04307451374022987</v>
+      </c>
+      <c r="T16">
+        <v>0.03322463027478374</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.5340865</v>
+      </c>
+      <c r="H17">
+        <v>1.068173</v>
+      </c>
+      <c r="I17">
+        <v>0.2416391429413172</v>
+      </c>
+      <c r="J17">
+        <v>0.1752048810604018</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.4608955</v>
+      </c>
+      <c r="N17">
+        <v>6.921791000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.1799267061170871</v>
+      </c>
+      <c r="P17">
+        <v>0.1276042764614454</v>
+      </c>
+      <c r="Q17">
+        <v>1.84841756446075</v>
+      </c>
+      <c r="R17">
+        <v>7.393670257843001</v>
+      </c>
+      <c r="S17">
+        <v>0.04347733505838718</v>
+      </c>
+      <c r="T17">
+        <v>0.02235689208022617</v>
       </c>
     </row>
   </sheetData>
